--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-06T03:30:47+00:00</t>
+    <t>2023-12-06T03:31:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
